--- a/pred_ohlcv/54_21/2020-01-24 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 REP ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-1311.382916047829</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1412.481216047829</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1412.481216047829</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1410.670916047829</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2000.861416047829</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2097.656616047829</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2095.217116047829</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2095.217116047829</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2004.313416047829</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1992.956016047829</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1972.618416047829</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1945.345516047829</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2024.349216047829</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2024.349216047829</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1994.591516047828</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1981.999393790577</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1983.776893790577</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2955.431193790577</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2954.425493790577</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2954.425493790577</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2954.425493790577</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4057.542814815884</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4061.419814815884</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3924.410814815884</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3924.410814815884</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3926.410814815884</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3926.344814815885</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3951.752814815884</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3951.719814815885</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3955.532714815884</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3955.532714815884</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3955.466714815885</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3957.466714815885</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3957.466714815885</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3984.272714815885</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3984.272714815885</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3985.845314815885</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-3985.691514815885</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-3987.634914815885</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-4120.209614815884</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-4112.842614815884</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-4112.842614815884</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-4172.245914815884</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-4174.704914815884</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-4174.704914815884</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-4180.834814815884</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-4303.112614815885</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-4303.112614815885</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-4252.373014815885</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-4252.373014815885</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-4252.373014815885</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-4252.373014815885</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-4264.594914815884</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-4320.377614815884</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-4351.178614815884</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4210.431414815884</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-24 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 REP ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-1311.382916047829</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1412.481216047829</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1412.481216047829</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1410.670916047829</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1678.989616047829</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1678.989616047829</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1696.977216047829</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1850.767616047829</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2000.861416047829</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2097.656616047829</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2097.656616047829</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2095.217116047829</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2095.217116047829</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2004.313416047829</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1992.956016047829</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1972.618416047829</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1945.345516047829</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2024.349216047829</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1994.591516047828</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2954.425493790577</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2954.425493790577</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4057.542814815884</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4061.419814815884</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3924.410814815884</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3924.410814815884</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3926.410814815884</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3926.344814815885</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3951.752814815884</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3951.719814815885</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3955.532714815884</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3955.532714815884</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3955.466714815885</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3957.466714815885</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3957.466714815885</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3984.272714815885</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3984.272714815885</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3985.845314815885</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-3985.691514815885</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-3987.634914815885</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4034.393814815885</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-4120.209614815884</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-4112.842614815884</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-4112.842614815884</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-4172.245914815884</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-4174.704914815884</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-4174.704914815884</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-4180.834814815884</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-4252.373014815885</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-4252.373014815885</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-4264.594914815884</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-4320.377614815884</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-4351.178614815884</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4212.518114815884</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4210.431414815884</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
